--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -102,13 +102,16 @@
     <t>09/30/21 08:55:37</t>
   </si>
   <si>
-    <t>09/30/21 08:58:48</t>
-  </si>
-  <si>
-    <t>52dfa322e35d9e2cbcde2825a275f88216ecd091</t>
-  </si>
-  <si>
-    <t>Delete Report.yml</t>
+    <t>09/30/21 09:08:52</t>
+  </si>
+  <si>
+    <t>793c74f3cbcd59868f01eadd7661b2da14788c40</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Update a.MD</t>
   </si>
   <si>
     <t>Pass</t>
@@ -638,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -650,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,7 +681,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -84,7 +84,7 @@
     <t>Test Case Script Location</t>
   </si>
   <si>
-    <t>23232</t>
+    <t>id231</t>
   </si>
   <si>
     <t>dsddsfd</t>
@@ -102,10 +102,10 @@
     <t>09/30/21 08:55:37</t>
   </si>
   <si>
-    <t>09/30/21 09:08:52</t>
-  </si>
-  <si>
-    <t>793c74f3cbcd59868f01eadd7661b2da14788c40</t>
+    <t>09/30/21 09:10:42</t>
+  </si>
+  <si>
+    <t>8098a7535b6e7d39d72bad45891876ac9578cfa7</t>
   </si>
   <si>
     <t>No</t>

--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -84,7 +84,7 @@
     <t>Test Case Script Location</t>
   </si>
   <si>
-    <t>id231</t>
+    <t>noIDx</t>
   </si>
   <si>
     <t>dsddsfd</t>
@@ -102,10 +102,10 @@
     <t>09/30/21 08:55:37</t>
   </si>
   <si>
-    <t>09/30/21 09:10:42</t>
-  </si>
-  <si>
-    <t>8098a7535b6e7d39d72bad45891876ac9578cfa7</t>
+    <t>09/30/21 09:20:23</t>
+  </si>
+  <si>
+    <t>92d04a8eea31b2ac3f6bc00dfaf5d00bb85ba1b8</t>
   </si>
   <si>
     <t>No</t>

--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -105,7 +105,7 @@
     <t>09/30/21 09:20:23</t>
   </si>
   <si>
-    <t>92d04a8eea31b2ac3f6bc00dfaf5d00bb85ba1b8</t>
+    <t>0d577b3bdbbb9b4a2c8b8c0aa18524bccdc544e5</t>
   </si>
   <si>
     <t>No</t>
@@ -669,7 +669,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>

--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -105,13 +105,14 @@
     <t>09/30/21 09:20:23</t>
   </si>
   <si>
-    <t>0d577b3bdbbb9b4a2c8b8c0aa18524bccdc544e5</t>
+    <t>e8b7461e931a3a9f383c54e21c992df41578dd8f</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Update a.MD</t>
+    <t xml:space="preserve">Generate Results
+</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -105,14 +105,13 @@
     <t>09/30/21 09:20:23</t>
   </si>
   <si>
-    <t>e8b7461e931a3a9f383c54e21c992df41578dd8f</t>
+    <t>d92bd99e104d4281dc11ad75ea2aaa6b5a354e03</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Generate Results
-</t>
+    <t>Update RR.yml</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/a.xlsx
+++ b/Reports/a.xlsx
@@ -84,7 +84,7 @@
     <t>Test Case Script Location</t>
   </si>
   <si>
-    <t>noIDx</t>
+    <t>noIDxx</t>
   </si>
   <si>
     <t>dsddsfd</t>
@@ -102,16 +102,16 @@
     <t>09/30/21 08:55:37</t>
   </si>
   <si>
-    <t>09/30/21 09:20:23</t>
-  </si>
-  <si>
-    <t>d92bd99e104d4281dc11ad75ea2aaa6b5a354e03</t>
+    <t>09/30/21 09:40:55</t>
+  </si>
+  <si>
+    <t>04e5ef225facb77784c321133bbf5858ddfb57c4</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Update RR.yml</t>
+    <t>Update a.MD</t>
   </si>
   <si>
     <t>Pass</t>
